--- a/Unity/Assets/Config/Excel/DailyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DailyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23790" windowHeight="11835"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfigProto" sheetId="1" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/Unity/Assets/Config/Excel/DailyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DailyConfig.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="20175" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="DailyConfigProto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DailyConfigProto!$A$1:$I$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -41,10 +44,13 @@
     <t>DailyType</t>
   </si>
   <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
     <t>#Desc</t>
   </si>
   <si>
-    <t>Days</t>
+    <t>DaysOfWeek</t>
   </si>
   <si>
     <t>StartTime</t>
@@ -59,6 +65,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>int?</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>周几</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -126,6 +138,12 @@
   </si>
   <si>
     <t>1,3,4,5,6,0</t>
+  </si>
+  <si>
+    <t>随身商店</t>
+  </si>
+  <si>
+    <t>每日购买</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1155,15 +1173,15 @@
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="26.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="5" customWidth="1"/>
-    <col min="9" max="12" width="9" style="4"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="4" max="5" width="21.375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="26.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="5" customWidth="1"/>
+    <col min="10" max="13" width="9" style="4"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1182,23 +1200,26 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -1207,270 +1228,323 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5">
-        <v>25569.2083333333</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H4" s="5">
         <v>25569.2083333333</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4" s="5">
+        <v>25569.2083333333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5">
-        <v>25569.2083333333</v>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H5" s="5">
         <v>25569.2083333333</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:12">
+      <c r="I5" s="5">
+        <v>25569.2083333333</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="11"/>
       <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5">
-        <v>25569.2083333333</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="5">
         <v>25569.2083333333</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="5">
+        <v>25569.2083333333</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5">
-        <v>25569.2083333333</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="5">
         <v>25569.2083333333</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="I7" s="5">
+        <v>25569.2083333333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5">
+        <v>25569.2083333333</v>
+      </c>
+      <c r="I8" s="5">
+        <v>25569.2083333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/DailyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DailyConfig.xlsx
@@ -1164,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
